--- a/Linux Commands.xlsx
+++ b/Linux Commands.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t xml:space="preserve">Description</t>
   </si>
@@ -29,12 +29,18 @@
     <t xml:space="preserve">Commands</t>
   </si>
   <si>
+    <t xml:space="preserve">Cagetory</t>
+  </si>
+  <si>
     <t xml:space="preserve">Turning off Graphical Desktop</t>
   </si>
   <si>
     <t xml:space="preserve">sudo telinit 3</t>
   </si>
   <si>
+    <t xml:space="preserve">GUI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Turning on Graphical Desktop</t>
   </si>
   <si>
@@ -47,6 +53,9 @@
     <t xml:space="preserve">halt, poweroff, shutdown -h</t>
   </si>
   <si>
+    <t xml:space="preserve">System Management</t>
+  </si>
+  <si>
     <t xml:space="preserve">Restarting the system</t>
   </si>
   <si>
@@ -59,6 +68,9 @@
     <t xml:space="preserve">which &lt;packagename&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Package</t>
+  </si>
+  <si>
     <t xml:space="preserve">Locating packages and their man documents</t>
   </si>
   <si>
@@ -99,6 +111,102 @@
   </si>
   <si>
     <t xml:space="preserve">cd /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List the content of current directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list all files including hidden file starting with '.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colored list [=always/never/auto]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls --color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list directories - with ' */'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add one char of */=&gt;@| to enteries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list file's inode index number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list with long format - show permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list long format including hidden files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list long format with readable file size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -lh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list with long format with file size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list in reverse order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list recursively directory tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list file size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort by file size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort by time &amp; date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort by extension name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -X</t>
   </si>
   <si>
     <t xml:space="preserve">About ttys</t>
@@ -114,11 +222,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,117 +245,22 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -254,23 +268,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,123 +293,25 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -419,17 +320,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B14"/>
+  <dimension ref="A2:C30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,101 +341,316 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
+      <c r="A6" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
+      <c r="A8" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +672,7 @@
   <dimension ref="A5:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -565,16 +682,16 @@
   <sheetData>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Linux Commands.xlsx
+++ b/Linux Commands.xlsx
@@ -323,7 +323,7 @@
   <dimension ref="A2:C30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
